--- a/data/process_04/inputData.xlsx
+++ b/data/process_04/inputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Document Type</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Quantity_2</t>
+  </si>
+  <si>
+    <t>Unitof measure</t>
+  </si>
+  <si>
+    <t>lb</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -419,7 +425,7 @@
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1">
+    <row r="1" spans="1:19" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,8 +480,11 @@
       <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -498,7 +507,7 @@
         <v>101301</v>
       </c>
       <c r="H2" s="1">
-        <v>44242</v>
+        <v>44245</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>
@@ -529,6 +538,9 @@
       </c>
       <c r="R2">
         <v>1272</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_04/inputData.xlsx
+++ b/data/process_04/inputData.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -507,7 +507,7 @@
         <v>101301</v>
       </c>
       <c r="H2" s="1">
-        <v>44245</v>
+        <v>44247</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>

--- a/data/process_04/inputData.xlsx
+++ b/data/process_04/inputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Document Type</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>lb</t>
+  </si>
+  <si>
+    <t>Pricing Unit</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -425,7 +428,7 @@
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1">
+    <row r="1" spans="1:20" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,8 +486,11 @@
       <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -507,7 +513,7 @@
         <v>101301</v>
       </c>
       <c r="H2" s="1">
-        <v>44247</v>
+        <v>44245</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>
@@ -541,6 +547,9 @@
       </c>
       <c r="S2" t="s">
         <v>23</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_04/inputData.xlsx
+++ b/data/process_04/inputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Document Type</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Pricing Unit</t>
+  </si>
+  <si>
+    <t>Cust Ref</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Bot Testing</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -428,7 +440,7 @@
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1">
+    <row r="1" spans="1:22" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,8 +501,14 @@
       <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -550,6 +568,12 @@
       </c>
       <c r="T2">
         <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_04/inputData.xlsx
+++ b/data/process_04/inputData.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -531,7 +531,7 @@
         <v>101301</v>
       </c>
       <c r="H2" s="1">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>
